--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="430">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Stroke Swallow Procedure Profile (R5)</t>
+    <t>Stroke Swallow Procedure Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,20 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Procedure profile to record key stroke procedures, including status, timing, complications, reasons, and context.</t>
+    <t xml:space="preserve"> Profile for documenting **swallow screening / dysphagia assessment** during a stroke episode.
+**Captures**
+- `code`: the screening/assessment procedure or tool used (SwallowProceduresVS).
+- `status`: whether completed or not done.
+- `statusReason`: controlled reason set when not done.
+- `extension[screeningTimingCategory]`: timing bucket (e.g., within 4h) for KPI reporting.
+- `extension[timingContext]`: acute/post-acute phase relative to encounter start.
+- `used.concept` (R5): explicitly documents the tool used, especially when:
+  - `code` is generic, or
+  - you want a consistent “tool used” field for analytics and comparison.
+**Use-cases**
+- Compliance monitoring: swallow screen performed early after stroke.
+- Tool utilization analysis (GUSS vs V-VST vs others).
+- Supporting aspiration pneumonia prevention workflows.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -467,13 +480,17 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t>n/a,N/A</t>
+    <t>Swallowing Screening Timing Category Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Extension capturing the **timing category** of swallowing screening relative to stroke onset/admission.
+**Primary use-case**
+- KPI reporting: “swallowing screening performed within 4 hours”.
+**When to use**
+- When you cannot reliably store an exact timestamp (or want an additional categorical indicator even if a timestamp exists).
+**How it complements base elements**
+- `Procedure.occurrence[x]` stores the exact time when available.
+- This extension stores a categorical bucket to support standardized reporting.</t>
   </si>
   <si>
     <t>Procedure.extension:timingContext</t>
@@ -484,6 +501,20 @@
   <si>
     <t xml:space="preserve">Extension {http://tecnomod-um.org/StructureDefinition/procedure-timing-context-ext}
 </t>
+  </si>
+  <si>
+    <t>Procedure Timing Context Extension</t>
+  </si>
+  <si>
+    <t>Extension classifying the procedure into a **timing context** relative to encounter start (acute/post-acute).
+**Primary use-case**
+- Operational reporting where “phase of care” is needed for compliance measures.
+**When to use**
+- When you want a stable, comparable phase label across sites (even if absolute times differ or onset time is uncertain).
+**Interpretation guidance**
+- Use `acute` for procedures within 24 hours of encounter start.
+- Use `post-acute` for procedures after 24 hours.
+- Use `unknown` when encounter/timing data are insufficient.</t>
   </si>
   <si>
     <t>Procedure.modifierExtension</t>
@@ -2864,7 +2895,7 @@
         <v>20</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>20</v>
@@ -2872,13 +2903,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>20</v>
@@ -2900,13 +2931,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="M11" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2986,14 +3017,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3015,16 +3046,16 @@
         <v>134</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -3073,7 +3104,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3102,10 +3133,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3128,19 +3159,19 @@
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -3189,7 +3220,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3204,24 +3235,24 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3244,13 +3275,13 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3301,7 +3332,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3316,13 +3347,13 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>20</v>
@@ -3330,10 +3361,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3359,13 +3390,13 @@
         <v>101</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3415,7 +3446,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3430,13 +3461,13 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>20</v>
@@ -3444,14 +3475,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3470,13 +3501,13 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3527,7 +3558,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3542,13 +3573,13 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>20</v>
@@ -3556,14 +3587,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3582,16 +3613,16 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3641,7 +3672,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3656,24 +3687,24 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3699,13 +3730,13 @@
         <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3735,7 +3766,7 @@
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -3753,7 +3784,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>87</v>
@@ -3768,13 +3799,13 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>20</v>
@@ -3782,14 +3813,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3808,16 +3839,16 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3847,7 +3878,7 @@
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -3865,7 +3896,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3880,13 +3911,13 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>20</v>
@@ -3894,10 +3925,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3920,13 +3951,13 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3953,13 +3984,13 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -3977,7 +4008,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3995,25 +4026,25 @@
         <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4032,17 +4063,17 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4071,7 +4102,7 @@
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -4089,7 +4120,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4104,28 +4135,28 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4144,13 +4175,13 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4201,7 +4232,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>87</v>
@@ -4216,24 +4247,24 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4256,13 +4287,13 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4313,7 +4344,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4331,7 +4362,7 @@
         <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>20</v>
@@ -4342,10 +4373,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4368,16 +4399,16 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4427,7 +4458,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4442,24 +4473,24 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4482,16 +4513,16 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4541,7 +4572,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4556,24 +4587,24 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4596,13 +4627,13 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4653,7 +4684,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4668,13 +4699,13 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>20</v>
@@ -4682,10 +4713,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4708,13 +4739,13 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4765,7 +4796,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4783,10 +4814,10 @@
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>20</v>
@@ -4794,14 +4825,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4820,17 +4851,17 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -4879,7 +4910,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4894,13 +4925,13 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>20</v>
@@ -4908,10 +4939,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4934,13 +4965,13 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4991,7 +5022,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5003,16 +5034,16 @@
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>20</v>
@@ -5020,10 +5051,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5046,13 +5077,13 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5103,7 +5134,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5112,7 +5143,7 @@
         <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>20</v>
@@ -5124,7 +5155,7 @@
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>20</v>
@@ -5132,14 +5163,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5161,13 +5192,13 @@
         <v>134</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5217,7 +5248,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5238,7 +5269,7 @@
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>20</v>
@@ -5246,14 +5277,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5275,16 +5306,16 @@
         <v>134</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5333,7 +5364,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5362,10 +5393,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5388,17 +5419,17 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5423,13 +5454,13 @@
         <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
@@ -5447,7 +5478,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5462,24 +5493,24 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5502,17 +5533,17 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5561,7 +5592,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -5570,30 +5601,30 @@
         <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5616,19 +5647,19 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5677,7 +5708,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5686,7 +5717,7 @@
         <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>99</v>
@@ -5698,7 +5729,7 @@
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>20</v>
@@ -5706,10 +5737,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5732,13 +5763,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5789,7 +5820,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5818,10 +5849,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5844,13 +5875,13 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5901,7 +5932,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5919,21 +5950,21 @@
         <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5956,16 +5987,16 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5991,13 +6022,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6015,7 +6046,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6030,24 +6061,24 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6070,16 +6101,16 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6105,13 +6136,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6129,7 +6160,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6150,18 +6181,18 @@
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6184,16 +6215,16 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6219,13 +6250,13 @@
         <v>20</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>20</v>
@@ -6243,7 +6274,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6264,7 +6295,7 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>20</v>
@@ -6272,10 +6303,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6298,16 +6329,16 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6357,7 +6388,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6378,7 +6409,7 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>20</v>
@@ -6386,10 +6417,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6412,16 +6443,16 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6447,13 +6478,13 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -6471,7 +6502,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6492,7 +6523,7 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>20</v>
@@ -6500,10 +6531,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6526,13 +6557,13 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6559,13 +6590,13 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -6583,7 +6614,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6604,7 +6635,7 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>20</v>
@@ -6612,10 +6643,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6638,13 +6669,13 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6695,7 +6726,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6710,24 +6741,24 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6750,13 +6781,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6807,7 +6838,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6828,7 +6859,7 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>20</v>
@@ -6836,10 +6867,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6862,13 +6893,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6919,7 +6950,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6928,7 +6959,7 @@
         <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>20</v>
@@ -6940,7 +6971,7 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>20</v>
@@ -6948,14 +6979,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6977,13 +7008,13 @@
         <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7033,7 +7064,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7054,7 +7085,7 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>20</v>
@@ -7062,14 +7093,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7091,16 +7122,16 @@
         <v>134</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7149,7 +7180,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7178,10 +7209,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7204,13 +7235,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7237,13 +7268,13 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7261,7 +7292,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7282,7 +7313,7 @@
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>20</v>
@@ -7290,10 +7321,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7316,13 +7347,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7373,7 +7404,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>87</v>
@@ -7394,7 +7425,7 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>20</v>
@@ -7402,10 +7433,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7428,19 +7459,19 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7465,13 +7496,13 @@
         <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>20</v>
@@ -7489,7 +7520,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7510,7 +7541,7 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>20</v>
@@ -7518,10 +7549,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7544,13 +7575,13 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7601,7 +7632,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7622,7 +7653,7 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -89,15 +89,13 @@
 - `code`: the screening/assessment procedure or tool used (SwallowProceduresVS).
 - `status`: whether completed or not done.
 - `statusReason`: controlled reason set when not done.
-- `extension[screeningTimingCategory]`: timing bucket (e.g., within 4h) for KPI reporting.
+- `extension[screeningTimingCategory]`: timing bucket (e.g., within 4h).
 - `extension[timingContext]`: acute/post-acute phase relative to encounter start.
-- `used.concept` (R5): explicitly documents the tool used, especially when:
-  - `code` is generic, or
-  - you want a consistent “tool used” field for analytics and comparison.
-**Use-cases**
-- Compliance monitoring: swallow screen performed early after stroke.
-- Tool utilization analysis (GUSS vs V-VST vs others).
-- Supporting aspiration pneumonia prevention workflows.</t>
+** Typical scenarios**
+1) Screening completed on-site: `status=completed`, `extension[screeningTimingCategory]` optional, `extension[timingContext]` optional.
+2) Screening not performed: `status=not-done`, `statusReason` required.
+3) Screening performed elsewhere: `status=not-done`, `statusReason` = performedElsewhere, `extension[screeningTimingCategory]` optional.
+</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -484,8 +482,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Extension capturing the **timing category** of swallowing screening relative to stroke onset/admission.
-**Primary use-case**
-- KPI reporting: “swallowing screening performed within 4 hours”.
 **When to use**
 - When you cannot reliably store an exact timestamp (or want an additional categorical indicator even if a timestamp exists).
 **How it complements base elements**

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-swallow-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-swallow-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
